--- a/결보강계획서_양식.xlsx
+++ b/결보강계획서_양식.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\flutter_apps\class_exchange_manager\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E88967C-3116-4870-8E28-009AE40C5D95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BDCAAEE-C31F-4E7C-A72B-B1A02326DF7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7995" yWindow="3315" windowWidth="28800" windowHeight="17145" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38295" yWindow="1275" windowWidth="21810" windowHeight="17040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -52,46 +52,16 @@
     <t>교체일</t>
   </si>
   <si>
-    <t>absenceDate</t>
-  </si>
-  <si>
-    <t>absenceDay</t>
-  </si>
-  <si>
     <t>period</t>
   </si>
   <si>
     <t>grade</t>
   </si>
   <si>
-    <t>className</t>
-  </si>
-  <si>
     <t>subject</t>
   </si>
   <si>
     <t>teacher</t>
-  </si>
-  <si>
-    <t>supplementSubject</t>
-  </si>
-  <si>
-    <t>supplementTeacher</t>
-  </si>
-  <si>
-    <t>substitutionDate</t>
-  </si>
-  <si>
-    <t>substitutionDay</t>
-  </si>
-  <si>
-    <t>substitutionPeriod</t>
-  </si>
-  <si>
-    <t>substitutionSubject</t>
-  </si>
-  <si>
-    <t>substitutionTeacher</t>
   </si>
   <si>
     <t>remarks</t>
@@ -534,6 +504,36 @@
   <si>
     <t>1-1 수업변경 안내</t>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>day</t>
+  </si>
+  <si>
+    <t>class</t>
+  </si>
+  <si>
+    <t>subject2</t>
+  </si>
+  <si>
+    <t>teacher2</t>
+  </si>
+  <si>
+    <t>date3</t>
+  </si>
+  <si>
+    <t>day3</t>
+  </si>
+  <si>
+    <t>period3</t>
+  </si>
+  <si>
+    <t>subject3</t>
+  </si>
+  <si>
+    <t>teacher3</t>
   </si>
 </sst>
 </file>
@@ -1091,8 +1091,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:O39"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="N5" sqref="N5"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <selection activeCell="M15" sqref="M15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1114,7 +1114,7 @@
   <sheetData>
     <row r="2" spans="1:15" ht="21" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -1150,7 +1150,7 @@
     </row>
     <row r="4" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="10" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="B4" s="10"/>
       <c r="C4" s="10"/>
@@ -1169,7 +1169,7 @@
     </row>
     <row r="5" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="10" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="B5" s="10"/>
       <c r="C5" s="10"/>
@@ -1188,7 +1188,7 @@
     </row>
     <row r="6" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="10" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="B6" s="10"/>
       <c r="C6" s="10"/>
@@ -1207,7 +1207,7 @@
     </row>
     <row r="7" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="11" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="B7" s="11"/>
       <c r="C7" s="11"/>
@@ -1226,7 +1226,7 @@
     </row>
     <row r="8" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="11" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="B8" s="11"/>
       <c r="C8" s="11"/>
@@ -1245,7 +1245,7 @@
     </row>
     <row r="9" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="12" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="B9" s="12"/>
       <c r="C9" s="12"/>
@@ -1254,18 +1254,18 @@
       <c r="F9" s="12"/>
       <c r="G9" s="12"/>
       <c r="H9" s="12" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="I9" s="12"/>
       <c r="J9" s="12" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="K9" s="12"/>
       <c r="L9" s="12"/>
       <c r="M9" s="12"/>
       <c r="N9" s="12"/>
       <c r="O9" s="13" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.3">
@@ -1288,76 +1288,76 @@
         <v>5</v>
       </c>
       <c r="G10" s="14" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="H10" s="14" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="I10" s="14" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="J10" s="14" t="s">
         <v>6</v>
       </c>
       <c r="K10" s="14" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="L10" s="14" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="M10" s="14" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="N10" s="14" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="O10" s="12"/>
     </row>
     <row r="11" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="B11" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="C11" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="15" t="s">
+      <c r="D11" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="15" t="s">
+      <c r="E11" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="F11" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="D11" s="15" t="s">
+      <c r="G11" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="E11" s="15" t="s">
+      <c r="H11" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="I11" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="J11" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="K11" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="L11" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="M11" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="N11" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="O11" s="15" t="s">
         <v>11</v>
-      </c>
-      <c r="F11" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="G11" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="H11" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="I11" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="J11" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="K11" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="L11" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="M11" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="N11" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="O11" s="15" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.3">
@@ -1634,7 +1634,7 @@
     </row>
     <row r="28" spans="1:15" s="17" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="6" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="B28" s="16"/>
       <c r="C28" s="16"/>
@@ -1653,7 +1653,7 @@
     </row>
     <row r="29" spans="1:15" s="17" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="7" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="B29" s="16"/>
       <c r="C29" s="16"/>
@@ -1672,7 +1672,7 @@
     </row>
     <row r="30" spans="1:15" s="17" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="7" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="B30" s="16"/>
       <c r="C30" s="16"/>
@@ -1691,7 +1691,7 @@
     </row>
     <row r="31" spans="1:15" s="17" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="7" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="B31" s="16"/>
       <c r="C31" s="16"/>
@@ -1710,7 +1710,7 @@
     </row>
     <row r="32" spans="1:15" s="17" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="7" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="B32" s="16"/>
       <c r="C32" s="16"/>
@@ -1729,7 +1729,7 @@
     </row>
     <row r="33" spans="1:15" s="17" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="7" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="B33" s="16"/>
       <c r="C33" s="16"/>
@@ -1748,7 +1748,7 @@
     </row>
     <row r="34" spans="1:15" s="17" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="7" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="B34" s="16"/>
       <c r="C34" s="16"/>
@@ -1767,7 +1767,7 @@
     </row>
     <row r="35" spans="1:15" s="17" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="7" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="B35" s="16"/>
       <c r="C35" s="16"/>
@@ -1803,7 +1803,7 @@
     </row>
     <row r="37" spans="1:15" s="9" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="8" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="B37" s="8"/>
       <c r="C37" s="8"/>
@@ -1879,8 +1879,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BCD6E39-B4DD-49AF-BF1D-0AC66072CBAC}">
   <dimension ref="A1:E31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1890,7 +1890,7 @@
   <sheetData>
     <row r="1" spans="1:5" s="20" customFormat="1" ht="66" x14ac:dyDescent="1.1000000000000001">
       <c r="A1" s="21" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="B1" s="19"/>
       <c r="C1" s="19"/>
@@ -1899,7 +1899,7 @@
     </row>
     <row r="2" spans="1:5" s="20" customFormat="1" ht="120.75" x14ac:dyDescent="1.1000000000000001">
       <c r="A2" s="22" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="B2" s="19"/>
       <c r="C2" s="19"/>
@@ -1908,7 +1908,7 @@
     </row>
     <row r="3" spans="1:5" s="20" customFormat="1" ht="120.75" x14ac:dyDescent="1.1000000000000001">
       <c r="A3" s="22" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="B3" s="19"/>
       <c r="C3" s="19"/>
